--- a/The observed PIN/work_file.xlsx
+++ b/The observed PIN/work_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHubFolders\My-Codewars-Solutions-Python\The observed PIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB778F2A-45EF-4AF9-B46A-8A39EC4A0FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31199F54-7502-45BA-B87D-89F1D664EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="555" windowWidth="14430" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="450" windowWidth="14430" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,18 +43,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -110,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,7 +118,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,53 +404,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J12"/>
+  <dimension ref="H4:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" style="1"/>
     <col min="8" max="10" width="4.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="5"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4+1</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <f>B4-1</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f>B4+3</f>
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <f>B4-3</f>
-        <v>-2</v>
-      </c>
+    <row r="4" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -464,26 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C12" si="0">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D11" si="1">B5-1</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E11" si="2">B5+3</f>
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F11" si="3">B5-3</f>
-        <v>-1</v>
-      </c>
+    <row r="5" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H5" s="2">
         <v>4</v>
       </c>
@@ -494,26 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+    <row r="6" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H6" s="3">
         <v>7</v>
       </c>
@@ -523,137 +451,62 @@
       <c r="J6" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" ref="D12" si="4">B12-1</f>
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ref="E12" si="5">B12+3</f>
-        <v>12</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ref="F12" si="6">B12-3</f>
-        <v>6</v>
-      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L6:N6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/The observed PIN/work_file.xlsx
+++ b/The observed PIN/work_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHubFolders\My-Codewars-Solutions-Python\The observed PIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31199F54-7502-45BA-B87D-89F1D664EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC29082-43F7-476D-98BF-A57F3C981139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="450" windowWidth="14430" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5685" yWindow="1140" windowWidth="14430" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,44 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -104,24 +142,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,104 +439,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H4:P15"/>
+  <dimension ref="B4:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" style="1"/>
     <col min="8" max="10" width="4.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="5"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H4" s="2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24568</v>
+      </c>
+      <c r="D4" s="1">
+        <v>57890</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H5" s="2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1">
+        <v>124</v>
+      </c>
+      <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H6" s="3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>369</v>
+      </c>
+      <c r="C6" s="1">
+        <v>236</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3569</v>
+      </c>
+      <c r="E6" s="1">
+        <v>689</v>
+      </c>
+      <c r="H6" s="4">
         <v>7</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>8</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>9</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="I7" s="2">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/The observed PIN/work_file.xlsx
+++ b/The observed PIN/work_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHubFolders\My-Codewars-Solutions-Python\The observed PIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\python\My-Codewars-Solutions-Python\The observed PIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC29082-43F7-476D-98BF-A57F3C981139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B8B70-F8A2-4DBC-A086-738CC6FE9F9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="1140" windowWidth="14430" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15480" yWindow="1410" windowWidth="12510" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>124</t>
   </si>
@@ -44,28 +36,13 @@
     <t>689</t>
   </si>
   <si>
-    <t>16</t>
+    <t>2</t>
   </si>
   <si>
-    <t>18</t>
+    <t>0</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -147,9 +124,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,6 +131,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:N11"/>
+  <dimension ref="B4:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,13 +439,13 @@
       <c r="D4" s="1">
         <v>57890</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
     </row>
@@ -482,13 +459,13 @@
       <c r="D5" s="1">
         <v>124</v>
       </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>6</v>
       </c>
     </row>
@@ -505,18 +482,18 @@
       <c r="E6" s="1">
         <v>689</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>7</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>8</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>9</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -528,22 +505,8 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -551,21 +514,98 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
